--- a/tests/datasets/test1_zip.xlsx
+++ b/tests/datasets/test1_zip.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BE633F-92C8-EC47-BCB4-EDDECDC63AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA58B615-4081-5C4F-9159-BB38ABB6CF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="500" windowWidth="33600" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="680" windowWidth="33600" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
   <si>
     <t>This is an Excel workbook for data entry.</t>
   </si>
@@ -230,28 +230,13 @@
     <t>GR</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>183,6</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>Ronaldo</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Striker</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[GH,GR,GL]</t>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -711,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1161,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,22 +1191,22 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -1230,24 +1215,10 @@
         <v>87</v>
       </c>
       <c r="I2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J2" s="8">
-        <v>37775</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
+        <v>45139</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1237,7 @@
   <dimension ref="A1:J1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1309,14 +1280,17 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>IF(ISBLANK('Data Entry'!$A$2), "", 'Data Entry'!$A$2)</f>
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="str">
+        <v>61</v>
+      </c>
+      <c r="D2">
         <f>IF(ISBLANK('Data Entry'!$D$2), "", 'Data Entry'!$D$2)</f>
-        <v>183,6</v>
+        <v>183</v>
       </c>
       <c r="E2" t="str">
         <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
@@ -1324,7 +1298,7 @@
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK('Data Entry'!$F$2), "", 'Data Entry'!$F$2)</f>
-        <v>ST</v>
+        <v>Striker</v>
       </c>
       <c r="G2">
         <f>IF(ISBLANK('Data Entry'!$G$2), "", 'Data Entry'!$G$2)</f>
@@ -1336,48 +1310,51 @@
       </c>
       <c r="I2">
         <f>IF(ISBLANK('Data Entry'!$I$2), "", 'Data Entry'!$I$2)</f>
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="J2">
         <f>IF(ISBLANK('Data Entry'!$J$2), "", 'Data Entry'!$J$2)</f>
-        <v>37775</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>IF(ISBLANK('Data Entry'!$A$3), "", 'Data Entry'!$A$3)</f>
-        <v>14</v>
+        <f>IF(ISBLANK('Data Entry'!$A$2), "", 'Data Entry'!$A$2)</f>
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$D$3), "", 'Data Entry'!$D$3)</f>
-        <v>a</v>
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <f>IF(ISBLANK('Data Entry'!$D$2), "", 'Data Entry'!$D$2)</f>
+        <v>183</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$E$3), "", 'Data Entry'!$E$3)</f>
-        <v/>
+        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
+        <v>Ronaldo</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$F$3), "", 'Data Entry'!$F$3)</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$G$3), "", 'Data Entry'!$G$3)</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$H$3), "", 'Data Entry'!$H$3)</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$I$3), "", 'Data Entry'!$I$3)</f>
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <f>IF(ISBLANK('Data Entry'!$J$3), "", 'Data Entry'!$J$3)</f>
-        <v/>
+        <f>IF(ISBLANK('Data Entry'!$F$2), "", 'Data Entry'!$F$2)</f>
+        <v>Striker</v>
+      </c>
+      <c r="G3">
+        <f>IF(ISBLANK('Data Entry'!$G$2), "", 'Data Entry'!$G$2)</f>
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <f>IF(ISBLANK('Data Entry'!$H$2), "", 'Data Entry'!$H$2)</f>
+        <v>87</v>
+      </c>
+      <c r="I3">
+        <f>IF(ISBLANK('Data Entry'!$I$2), "", 'Data Entry'!$I$2)</f>
+        <v>198</v>
+      </c>
+      <c r="J3">
+        <f>IF(ISBLANK('Data Entry'!$J$2), "", 'Data Entry'!$J$2)</f>
+        <v>45139</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1389,10 +1366,6 @@
         <f>IF(ISBLANK('Data Entry'!$B$4), "", 'Data Entry'!$B$4)</f>
         <v/>
       </c>
-      <c r="C4" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$4), "", VLOOKUP(TEXT('Data Entry'!$C$4, "0"), 'Schema Description'!$A$43:$B$45, 2))</f>
-        <v/>
-      </c>
       <c r="D4" t="str">
         <f>IF(ISBLANK('Data Entry'!$D$4), "", 'Data Entry'!$D$4)</f>
         <v/>
@@ -1431,10 +1404,6 @@
         <f>IF(ISBLANK('Data Entry'!$B$5), "", 'Data Entry'!$B$5)</f>
         <v/>
       </c>
-      <c r="C5" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$5), "", VLOOKUP(TEXT('Data Entry'!$C$5, "0"), 'Schema Description'!$A$43:$B$45, 2))</f>
-        <v/>
-      </c>
       <c r="D5" t="str">
         <f>IF(ISBLANK('Data Entry'!$D$5), "", 'Data Entry'!$D$5)</f>
         <v/>
@@ -1471,10 +1440,6 @@
       </c>
       <c r="B6" t="str">
         <f>IF(ISBLANK('Data Entry'!$B$6), "", 'Data Entry'!$B$6)</f>
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$6), "", VLOOKUP(TEXT('Data Entry'!$C$6, "0"), 'Schema Description'!$A$43:$B$45, 2))</f>
         <v/>
       </c>
       <c r="D6" t="str">

--- a/tests/datasets/test1_zip.xlsx
+++ b/tests/datasets/test1_zip.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA58B615-4081-5C4F-9159-BB38ABB6CF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10804BB4-BDA5-6643-A8EE-907E44A68055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="680" windowWidth="33600" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7720" yWindow="500" windowWidth="33600" windowHeight="20280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>This is an Excel workbook for data entry.</t>
   </si>
@@ -236,7 +236,13 @@
     <t>Striker</t>
   </si>
   <si>
-    <t>f</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>adadfdfadf</t>
   </si>
 </sst>
 </file>
@@ -697,7 +703,7 @@
   <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1219,6 +1225,11 @@
       </c>
       <c r="J2" s="8">
         <v>45139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1236,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,19 +1282,15 @@
         <v>52</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>IF(ISBLANK('Data Entry'!$A$2), "", 'Data Entry'!$A$2)</f>
-        <v>37</v>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -1318,12 +1325,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>IF(ISBLANK('Data Entry'!$A$2), "", 'Data Entry'!$A$2)</f>
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
